--- a/SmartTrafficSimulator/other/Poisson.xlsx
+++ b/SmartTrafficSimulator/other/Poisson.xlsx
@@ -384,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O27"/>
+  <dimension ref="C2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D2">
         <v>1</v>
       </c>
@@ -408,8 +408,11 @@
       <c r="K2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -444,7 +447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
         <f xml:space="preserve"> D3/10</f>
         <v>0.5</v>
@@ -486,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>0</v>
       </c>
@@ -531,7 +534,7 @@
         <v>6.737946999085467E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -540,43 +543,43 @@
         <v>0.90979598956895014</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E15" si="2">_xlfn.POISSON.DIST(C6,E$4,TRUE)</f>
+        <f>_xlfn.POISSON.DIST(C6,E$4,TRUE)</f>
         <v>0.73575888234288478</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F15" si="3">_xlfn.POISSON.DIST(C6,F$4,TRUE)</f>
+        <f t="shared" ref="F6:F15" si="2">_xlfn.POISSON.DIST(C6,F$4,TRUE)</f>
         <v>0.55782540037107464</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G15" si="4">_xlfn.POISSON.DIST(C6,G$4,TRUE)</f>
+        <f t="shared" ref="G6:G15" si="3">_xlfn.POISSON.DIST(C6,G$4,TRUE)</f>
         <v>0.40600584970983811</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H15" si="5">_xlfn.POISSON.DIST(C6,H$4,TRUE)</f>
+        <f t="shared" ref="H6:H15" si="4">_xlfn.POISSON.DIST(C6,H$4,TRUE)</f>
         <v>0.28729749518364578</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I15" si="6">_xlfn.POISSON.DIST(C6,I$4,TRUE)</f>
+        <f t="shared" ref="I6:I15" si="5">_xlfn.POISSON.DIST(C6,I$4,TRUE)</f>
         <v>0.19914827347145578</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J15" si="7">_xlfn.POISSON.DIST(C6,J$4,TRUE)</f>
+        <f t="shared" ref="J6:J15" si="6">_xlfn.POISSON.DIST(C6,J$4,TRUE)</f>
         <v>0.13588822540043324</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K15" si="8">_xlfn.POISSON.DIST(C6,K$4,TRUE)</f>
+        <f t="shared" ref="K6:K15" si="7">_xlfn.POISSON.DIST(C6,K$4,TRUE)</f>
         <v>9.1578194443670893E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L15" si="9">_xlfn.POISSON.DIST(C6,L$4,TRUE)</f>
+        <f t="shared" ref="L6:L15" si="8">_xlfn.POISSON.DIST(C6,L$4,TRUE)</f>
         <v>6.1099480960332686E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M15" si="10">_xlfn.POISSON.DIST(C6,M$4,TRUE)</f>
+        <f t="shared" ref="M6:M15" si="9">_xlfn.POISSON.DIST(C6,M$4,TRUE)</f>
         <v>4.0427681994512799E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2</v>
       </c>
@@ -585,43 +588,43 @@
         <v>0.98561232203302929</v>
       </c>
       <c r="E7">
+        <f t="shared" ref="E6:E15" si="10">_xlfn.POISSON.DIST(C7,E$4,TRUE)</f>
+        <v>0.91969860292860584</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.91969860292860584</v>
-      </c>
-      <c r="F7">
+        <v>0.80884683053805806</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="3"/>
-        <v>0.80884683053805806</v>
-      </c>
-      <c r="G7">
+        <v>0.6766764161830634</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="4"/>
-        <v>0.6766764161830634</v>
-      </c>
-      <c r="H7">
+        <v>0.54381311588332959</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="5"/>
-        <v>0.54381311588332959</v>
-      </c>
-      <c r="I7">
+        <v>0.42319008112684342</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="6"/>
-        <v>0.42319008112684342</v>
-      </c>
-      <c r="J7">
+        <v>0.32084719886213409</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="7"/>
-        <v>0.32084719886213409</v>
-      </c>
-      <c r="K7">
+        <v>0.23810330555354431</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="8"/>
-        <v>0.23810330555354431</v>
-      </c>
-      <c r="L7">
+        <v>0.17357807091003602</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="9"/>
-        <v>0.17357807091003602</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="10"/>
         <v>0.12465201948308113</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3</v>
       </c>
@@ -630,43 +633,43 @@
         <v>0.9982483774437092</v>
       </c>
       <c r="E8">
+        <f t="shared" si="10"/>
+        <v>0.98101184312384615</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.98101184312384615</v>
-      </c>
-      <c r="F8">
+        <v>0.93435754562154982</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.93435754562154982</v>
-      </c>
-      <c r="G8">
+        <v>0.85712346049854693</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="4"/>
-        <v>0.85712346049854693</v>
-      </c>
-      <c r="H8">
+        <v>0.75757613313306593</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="5"/>
-        <v>0.75757613313306593</v>
-      </c>
-      <c r="I8">
+        <v>0.64723188878223126</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.64723188878223126</v>
-      </c>
-      <c r="J8">
+        <v>0.53663266790078501</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="7"/>
-        <v>0.53663266790078501</v>
-      </c>
-      <c r="K8">
+        <v>0.43347012036670896</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="8"/>
-        <v>0.43347012036670896</v>
-      </c>
-      <c r="L8">
+        <v>0.34229595583459105</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="9"/>
-        <v>0.34229595583459105</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="10"/>
         <v>0.26502591529736169</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>4</v>
       </c>
@@ -675,43 +678,43 @@
         <v>0.99982788437004411</v>
       </c>
       <c r="E9">
+        <f t="shared" si="10"/>
+        <v>0.99634015317265634</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.99634015317265634</v>
-      </c>
-      <c r="F9">
+        <v>0.98142406377785929</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="3"/>
-        <v>0.98142406377785929</v>
-      </c>
-      <c r="G9">
+        <v>0.94734698265628881</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="4"/>
-        <v>0.94734698265628881</v>
-      </c>
-      <c r="H9">
+        <v>0.89117801891415127</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="5"/>
-        <v>0.89117801891415127</v>
-      </c>
-      <c r="I9">
+        <v>0.81526324452377208</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="6"/>
-        <v>0.81526324452377208</v>
-      </c>
-      <c r="J9">
+        <v>0.72544495330960457</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="7"/>
-        <v>0.72544495330960457</v>
-      </c>
-      <c r="K9">
+        <v>0.62883693517987349</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="8"/>
-        <v>0.62883693517987349</v>
-      </c>
-      <c r="L9">
+        <v>0.53210357637471528</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="9"/>
-        <v>0.53210357637471528</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="10"/>
         <v>0.44049328506521235</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>5</v>
       </c>
@@ -720,43 +723,43 @@
         <v>0.99998583506267757</v>
       </c>
       <c r="E10">
+        <f t="shared" si="10"/>
+        <v>0.99940581518241833</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.99940581518241833</v>
-      </c>
-      <c r="F10">
+        <v>0.99554401922475222</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>0.99554401922475222</v>
-      </c>
-      <c r="G10">
+        <v>0.98343639151938556</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="4"/>
-        <v>0.98343639151938556</v>
-      </c>
-      <c r="H10">
+        <v>0.95797896180469388</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="5"/>
-        <v>0.95797896180469388</v>
-      </c>
-      <c r="I10">
+        <v>0.91608205796869657</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="6"/>
-        <v>0.91608205796869657</v>
-      </c>
-      <c r="J10">
+        <v>0.85761355309577825</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="7"/>
-        <v>0.85761355309577825</v>
-      </c>
-      <c r="K10">
+        <v>0.78513038703040516</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="8"/>
-        <v>0.78513038703040516</v>
-      </c>
-      <c r="L10">
+        <v>0.70293043486082729</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="9"/>
-        <v>0.70293043486082729</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="10"/>
         <v>0.61596065483306306</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>6</v>
       </c>
@@ -765,43 +768,43 @@
         <v>0.99999899762039712</v>
       </c>
       <c r="E11">
+        <f t="shared" si="10"/>
+        <v>0.99991675885071196</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.99991675885071196</v>
-      </c>
-      <c r="F11">
+        <v>0.99907400808647528</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>0.99907400808647528</v>
-      </c>
-      <c r="G11">
+        <v>0.99546619447375106</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="4"/>
-        <v>0.99546619447375106</v>
-      </c>
-      <c r="H11">
+        <v>0.98581268800908661</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="5"/>
-        <v>0.98581268800908661</v>
-      </c>
-      <c r="I11">
+        <v>0.96649146469115887</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="6"/>
-        <v>0.96649146469115887</v>
-      </c>
-      <c r="J11">
+        <v>0.93471190297104623</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="7"/>
-        <v>0.93471190297104623</v>
-      </c>
-      <c r="K11">
+        <v>0.88932602159742624</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="8"/>
-        <v>0.88932602159742624</v>
-      </c>
-      <c r="L11">
+        <v>0.83105057872541144</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="9"/>
-        <v>0.83105057872541144</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="10"/>
         <v>0.7621834629729386</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>7</v>
       </c>
@@ -810,43 +813,43 @@
         <v>0.99999993780309138</v>
       </c>
       <c r="E12">
+        <f t="shared" si="10"/>
+        <v>0.99998975080332531</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.99998975080332531</v>
-      </c>
-      <c r="F12">
+        <v>0.99983043427113039</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>0.99983043427113039</v>
-      </c>
-      <c r="G12">
+        <v>0.99890328103214132</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="4"/>
-        <v>0.99890328103214132</v>
-      </c>
-      <c r="H12">
+        <v>0.99575330451065547</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="5"/>
-        <v>0.99575330451065547</v>
-      </c>
-      <c r="I12">
+        <v>0.98809549614364256</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="6"/>
-        <v>0.98809549614364256</v>
-      </c>
-      <c r="J12">
+        <v>0.97326107790868033</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="7"/>
-        <v>0.97326107790868033</v>
-      </c>
-      <c r="K12">
+        <v>0.94886638420715264</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="8"/>
-        <v>0.94886638420715264</v>
-      </c>
-      <c r="L12">
+        <v>0.91341352835264389</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="9"/>
-        <v>0.91341352835264389</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="10"/>
         <v>0.86662832592999273</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>8</v>
       </c>
@@ -855,43 +858,43 @@
         <v>0.99999999656450977</v>
       </c>
       <c r="E13">
+        <f t="shared" si="10"/>
+        <v>0.99999887479740202</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.99999887479740202</v>
-      </c>
-      <c r="F13">
+        <v>0.99997226418075313</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.99997226418075313</v>
-      </c>
-      <c r="G13">
+        <v>0.99976255267173886</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="4"/>
-        <v>0.99976255267173886</v>
-      </c>
-      <c r="H13">
+        <v>0.99885974716739578</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="5"/>
-        <v>0.99885974716739578</v>
-      </c>
-      <c r="I13">
+        <v>0.996197007938324</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="6"/>
-        <v>0.996197007938324</v>
-      </c>
-      <c r="J13">
+        <v>0.99012634194389526</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="7"/>
-        <v>0.99012634194389526</v>
-      </c>
-      <c r="K13">
+        <v>0.97863656551201583</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="8"/>
-        <v>0.97863656551201583</v>
-      </c>
-      <c r="L13">
+        <v>0.95974268751796221</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="9"/>
-        <v>0.95974268751796221</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="10"/>
         <v>0.93190636527815141</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>9</v>
       </c>
@@ -900,43 +903,43 @@
         <v>0.99999999982903298</v>
       </c>
       <c r="E14">
+        <f t="shared" si="10"/>
+        <v>0.9999998885745216</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.9999998885745216</v>
-      </c>
-      <c r="F14">
+        <v>0.99999590249902359</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>0.99999590249902359</v>
-      </c>
-      <c r="G14">
+        <v>0.99995350192498278</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="4"/>
-        <v>0.99995350192498278</v>
-      </c>
-      <c r="H14">
+        <v>0.99972264790537912</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="5"/>
-        <v>0.99972264790537912</v>
-      </c>
-      <c r="I14">
+        <v>0.99889751186988451</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="6"/>
-        <v>0.99889751186988451</v>
-      </c>
-      <c r="J14">
+        <v>0.9966850557353677</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="7"/>
-        <v>0.9966850557353677</v>
-      </c>
-      <c r="K14">
+        <v>0.99186775720306608</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="8"/>
-        <v>0.99186775720306608</v>
-      </c>
-      <c r="L14">
+        <v>0.98290726710062137</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="9"/>
-        <v>0.98290726710062137</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="10"/>
         <v>0.96817194269379514</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>10</v>
       </c>
@@ -945,209 +948,40 @@
         <v>0.99999999999225908</v>
       </c>
       <c r="E15">
+        <f t="shared" si="10"/>
+        <v>0.9999999899522336</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.9999999899522336</v>
-      </c>
-      <c r="F15">
+        <v>0.99999944824676423</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v>0.99999944824676423</v>
-      </c>
-      <c r="G15">
+        <v>0.99999169177563152</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="4"/>
-        <v>0.99999169177563152</v>
-      </c>
-      <c r="H15">
+        <v>0.99993837308987499</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="5"/>
-        <v>0.99993837308987499</v>
-      </c>
-      <c r="I15">
+        <v>0.99970766304935266</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="6"/>
-        <v>0.99970766304935266</v>
-      </c>
-      <c r="J15">
+        <v>0.998980605562383</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="7"/>
-        <v>0.998980605562383</v>
-      </c>
-      <c r="K15">
+        <v>0.99716023387948627</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="8"/>
-        <v>0.99716023387948627</v>
-      </c>
-      <c r="L15">
+        <v>0.99333132791281809</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="9"/>
-        <v>0.99333132791281809</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="10"/>
         <v>0.98630473140161712</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <v>7</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-      <c r="N17">
-        <v>9</v>
-      </c>
-      <c r="O17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <f xml:space="preserve"> C18/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="E18">
-        <f>_xlfn.POISSON.DIST(E17,D18,TRUE)</f>
-        <v>0.67032004603563933</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ref="F18:O18" si="11">_xlfn.POISSON.DIST(F17,E18,TRUE)</f>
-        <v>0.8544435901567734</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="11"/>
-        <v>0.94443310147374016</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="11"/>
-        <v>0.98423136498147934</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="11"/>
-        <v>0.99657619274745679</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="11"/>
-        <v>0.99941623976939487</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="11"/>
-        <v>0.99991705668433406</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="11"/>
-        <v>0.99998975685601366</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="11"/>
-        <v>0.99999887489085704</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="11"/>
-        <v>0.99999988857566224</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="11"/>
-        <v>0.99999998995224493</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ref="D19:D26" si="12" xml:space="preserve"> C19/10</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="12"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="12"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="12"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="12"/>
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>32</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="12"/>
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>36</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="12"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <f xml:space="preserve"> C27/10</f>
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SmartTrafficSimulator/other/Poisson.xlsx
+++ b/SmartTrafficSimulator/other/Poisson.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="C2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -449,44 +449,44 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D4" s="1">
-        <f xml:space="preserve"> D3/10</f>
-        <v>0.5</v>
+        <f xml:space="preserve"> D3/60</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:M4" si="0" xml:space="preserve"> E3/10</f>
-        <v>1</v>
+        <f t="shared" ref="E4:M4" si="0" xml:space="preserve"> E3/60</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>0.75</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
@@ -495,43 +495,43 @@
       </c>
       <c r="D5">
         <f>_xlfn.POISSON.DIST(C5,D$4,TRUE)</f>
-        <v>0.60653065971263342</v>
+        <v>0.92004441462932329</v>
       </c>
       <c r="E5">
         <f>_xlfn.POISSON.DIST(C5,E$4,TRUE)</f>
-        <v>0.36787944117144233</v>
+        <v>0.84648172489061413</v>
       </c>
       <c r="F5">
         <f>_xlfn.POISSON.DIST(C5,F$4,TRUE)</f>
-        <v>0.22313016014842982</v>
+        <v>0.77880078307140488</v>
       </c>
       <c r="G5">
         <f>_xlfn.POISSON.DIST(C5,G$4,TRUE)</f>
-        <v>0.1353352832366127</v>
+        <v>0.71653131057378927</v>
       </c>
       <c r="H5">
         <f>_xlfn.POISSON.DIST(C5,H$4,TRUE)</f>
-        <v>8.20849986238988E-2</v>
+        <v>0.65924063020044377</v>
       </c>
       <c r="I5">
         <f>_xlfn.POISSON.DIST(C5,I$4,TRUE)</f>
-        <v>4.9787068367863944E-2</v>
+        <v>0.60653065971263342</v>
       </c>
       <c r="J5">
         <f>_xlfn.POISSON.DIST(C5,J$4,TRUE)</f>
-        <v>3.0197383422318501E-2</v>
+        <v>0.55803514577004709</v>
       </c>
       <c r="K5">
         <f>_xlfn.POISSON.DIST(C5,K$4,TRUE)</f>
-        <v>1.8315638888734179E-2</v>
+        <v>0.51341711903259202</v>
       </c>
       <c r="L5">
         <f>_xlfn.POISSON.DIST(C5,L$4,TRUE)</f>
-        <v>1.1108996538242306E-2</v>
+        <v>0.47236655274101469</v>
       </c>
       <c r="M5">
         <f>_xlfn.POISSON.DIST(C5,M$4,TRUE)</f>
-        <v>6.737946999085467E-3</v>
+        <v>0.4345982085070782</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
@@ -540,43 +540,43 @@
       </c>
       <c r="D6">
         <f t="shared" ref="D6:D15" si="1">_xlfn.POISSON.DIST(C6,D$4,TRUE)</f>
-        <v>0.90979598956895014</v>
+        <v>0.99671478251510015</v>
       </c>
       <c r="E6">
         <f>_xlfn.POISSON.DIST(C6,E$4,TRUE)</f>
-        <v>0.73575888234288478</v>
+        <v>0.98756201237238306</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F15" si="2">_xlfn.POISSON.DIST(C6,F$4,TRUE)</f>
-        <v>0.55782540037107464</v>
+        <v>0.97350097883925613</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G15" si="3">_xlfn.POISSON.DIST(C6,G$4,TRUE)</f>
-        <v>0.40600584970983811</v>
+        <v>0.95537508076505229</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H15" si="4">_xlfn.POISSON.DIST(C6,H$4,TRUE)</f>
-        <v>0.28729749518364578</v>
+        <v>0.93392422611729531</v>
       </c>
       <c r="I6">
         <f t="shared" ref="I6:I15" si="5">_xlfn.POISSON.DIST(C6,I$4,TRUE)</f>
-        <v>0.19914827347145578</v>
+        <v>0.90979598956895014</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J15" si="6">_xlfn.POISSON.DIST(C6,J$4,TRUE)</f>
-        <v>0.13588822540043324</v>
+        <v>0.8835556474692412</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K15" si="7">_xlfn.POISSON.DIST(C6,K$4,TRUE)</f>
-        <v>9.1578194443670893E-2</v>
+        <v>0.8556951983876534</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L15" si="8">_xlfn.POISSON.DIST(C6,L$4,TRUE)</f>
-        <v>6.1099480960332686E-2</v>
+        <v>0.82664146729677568</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M15" si="9">_xlfn.POISSON.DIST(C6,M$4,TRUE)</f>
-        <v>4.0427681994512799E-2</v>
+        <v>0.79676338226297672</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
@@ -585,43 +585,43 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.98561232203302929</v>
+        <v>0.99990938117700756</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E6:E15" si="10">_xlfn.POISSON.DIST(C7,E$4,TRUE)</f>
-        <v>0.91969860292860584</v>
+        <f t="shared" ref="E7:E15" si="10">_xlfn.POISSON.DIST(C7,E$4,TRUE)</f>
+        <v>0.99931870299586389</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0.80884683053805806</v>
+        <v>0.99783850331023749</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0.6766764161830634</v>
+        <v>0.99518237579692959</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>0.54381311588332959</v>
+        <v>0.99114997526663939</v>
       </c>
       <c r="I7">
         <f t="shared" si="5"/>
-        <v>0.42319008112684342</v>
+        <v>0.98561232203302929</v>
       </c>
       <c r="J7">
         <f t="shared" si="6"/>
-        <v>0.32084719886213409</v>
+        <v>0.97849912713150622</v>
       </c>
       <c r="K7">
         <f t="shared" si="7"/>
-        <v>0.23810330555354431</v>
+        <v>0.96978789150600719</v>
       </c>
       <c r="L7">
         <f t="shared" si="8"/>
-        <v>0.17357807091003602</v>
+        <v>0.95949456025518609</v>
       </c>
       <c r="M7">
         <f t="shared" si="9"/>
-        <v>0.12465201948308113</v>
+        <v>0.94766553799460107</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
@@ -630,43 +630,43 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.9982483774437092</v>
+        <v>0.99999812002872723</v>
       </c>
       <c r="E8">
         <f t="shared" si="10"/>
-        <v>0.98101184312384615</v>
+        <v>0.99997185247494613</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0.93435754562154982</v>
+        <v>0.99986663034948586</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.85712346049854693</v>
+        <v>0.9996054085782492</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>0.75757613313306593</v>
+        <v>0.99909799598182603</v>
       </c>
       <c r="I8">
         <f t="shared" si="5"/>
-        <v>0.64723188878223126</v>
+        <v>0.9982483774437092</v>
       </c>
       <c r="J8">
         <f t="shared" si="6"/>
-        <v>0.53663266790078501</v>
+        <v>0.9969603592880576</v>
       </c>
       <c r="K8">
         <f t="shared" si="7"/>
-        <v>0.43347012036670896</v>
+        <v>0.99514182331008572</v>
       </c>
       <c r="L8">
         <f t="shared" si="8"/>
-        <v>0.34229595583459105</v>
+        <v>0.99270783349478875</v>
       </c>
       <c r="M8">
         <f t="shared" si="9"/>
-        <v>0.26502591529736169</v>
+        <v>0.9895828034756079</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
@@ -675,43 +675,43 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.99982788437004411</v>
+        <v>0.99999996875480468</v>
       </c>
       <c r="E9">
         <f t="shared" si="10"/>
-        <v>0.99634015317265634</v>
+        <v>0.9999990670365746</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0.98142406377785929</v>
+        <v>0.99999338828943896</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>0.94734698265628881</v>
+        <v>0.99997399464335923</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>0.89117801891415127</v>
+        <v>0.99992591480632464</v>
       </c>
       <c r="I9">
         <f t="shared" si="5"/>
-        <v>0.81526324452377208</v>
+        <v>0.99982788437004411</v>
       </c>
       <c r="J9">
         <f t="shared" si="6"/>
-        <v>0.72544495330960457</v>
+        <v>0.99965262231088814</v>
       </c>
       <c r="K9">
         <f t="shared" si="7"/>
-        <v>0.62883693517987349</v>
+        <v>0.99936747861076558</v>
       </c>
       <c r="L9">
         <f t="shared" si="8"/>
-        <v>0.53210357637471528</v>
+        <v>0.99893532222721415</v>
       </c>
       <c r="M9">
         <f t="shared" si="9"/>
-        <v>0.44049328506521235</v>
+        <v>0.99831556711748437</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
@@ -720,43 +720,43 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.99998583506267757</v>
+        <v>0.99999999956690599</v>
       </c>
       <c r="E10">
         <f t="shared" si="10"/>
-        <v>0.99940581518241833</v>
+        <v>0.99999997418862874</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>0.99554401922475222</v>
+        <v>0.99999972618643662</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>0.98343639151938556</v>
+        <v>0.99999856704769985</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>0.95797896180469388</v>
+        <v>0.99999490804169955</v>
       </c>
       <c r="I10">
         <f t="shared" si="5"/>
-        <v>0.91608205796869657</v>
+        <v>0.99998583506267757</v>
       </c>
       <c r="J10">
         <f t="shared" si="6"/>
-        <v>0.85761355309577825</v>
+        <v>0.99996671966355166</v>
       </c>
       <c r="K10">
         <f t="shared" si="7"/>
-        <v>0.78513038703040516</v>
+        <v>0.99993089931752288</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
-        <v>0.70293043486082729</v>
+        <v>0.99986944553707802</v>
       </c>
       <c r="M10">
         <f t="shared" si="9"/>
-        <v>0.61596065483306306</v>
+        <v>0.99977102772446369</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
@@ -765,43 +765,43 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0.99999899762039712</v>
+        <v>0.9999999999948519</v>
       </c>
       <c r="E11">
         <f t="shared" si="10"/>
-        <v>0.99991675885071196</v>
+        <v>0.999999999387297</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>0.99907400808647528</v>
+        <v>0.99999999026547814</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0.99546619447375106</v>
+        <v>0.99999993218127425</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>0.98581268800908661</v>
+        <v>0.99999969923860066</v>
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
-        <v>0.96649146469115887</v>
+        <v>0.99999899762039712</v>
       </c>
       <c r="J11">
         <f t="shared" si="6"/>
-        <v>0.93471190297104623</v>
+        <v>0.99999725690617169</v>
       </c>
       <c r="K11">
         <f t="shared" si="7"/>
-        <v>0.88932602159742624</v>
+        <v>0.99999350161827372</v>
       </c>
       <c r="L11">
         <f t="shared" si="8"/>
-        <v>0.83105057872541144</v>
+        <v>0.99998621095081108</v>
       </c>
       <c r="M11">
         <f t="shared" si="9"/>
-        <v>0.7621834629729386</v>
+        <v>0.99997317503098859</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
@@ -810,43 +810,43 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.99999993780309138</v>
+        <v>0.99999999999994649</v>
       </c>
       <c r="E12">
         <f t="shared" si="10"/>
-        <v>0.99998975080332531</v>
+        <v>0.9999999999872653</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>0.99983043427113039</v>
+        <v>0.99999999969687248</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>0.99890328103214132</v>
+        <v>0.99999999718763499</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>0.99575330451065547</v>
+        <v>0.99999998442889226</v>
       </c>
       <c r="I12">
         <f t="shared" si="5"/>
-        <v>0.98809549614364256</v>
+        <v>0.99999993780309138</v>
       </c>
       <c r="J12">
         <f t="shared" si="6"/>
-        <v>0.97326107790868033</v>
+        <v>0.99999980167639002</v>
       </c>
       <c r="K12">
         <f t="shared" si="7"/>
-        <v>0.94886638420715264</v>
+        <v>0.99999946374215476</v>
       </c>
       <c r="L12">
         <f t="shared" si="8"/>
-        <v>0.91341352835264389</v>
+        <v>0.9999987215308539</v>
       </c>
       <c r="M12">
         <f t="shared" si="9"/>
-        <v>0.86662832592999273</v>
+        <v>0.99999724018652736</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
@@ -855,43 +855,43 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.99999999656450977</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="E13">
         <f t="shared" si="10"/>
-        <v>0.99999887479740202</v>
+        <v>0.99999999999976463</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>0.99997226418075313</v>
+        <v>0.99999999999160361</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.99976255267173886</v>
+        <v>0.99999999989623345</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>0.99885974716739578</v>
+        <v>0.99999999928255334</v>
       </c>
       <c r="I13">
         <f t="shared" si="5"/>
-        <v>0.996197007938324</v>
+        <v>0.99999999656450977</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>0.99012634194389526</v>
+        <v>0.99999998723255179</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
-        <v>0.97863656551201583</v>
+        <v>0.99999996058581142</v>
       </c>
       <c r="L13">
         <f t="shared" si="8"/>
-        <v>0.95974268751796221</v>
+        <v>0.99999989439773285</v>
       </c>
       <c r="M13">
         <f t="shared" si="9"/>
-        <v>0.93190636527815141</v>
+        <v>0.99999974697356264</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
@@ -900,43 +900,43 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>0.99999999982903298</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="10"/>
-        <v>0.9999998885745216</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>0.99999590249902359</v>
+        <v>0.99999999999979061</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>0.99995350192498278</v>
+        <v>0.99999999999655187</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>0.99972264790537912</v>
+        <v>0.99999999997022282</v>
       </c>
       <c r="I14">
         <f t="shared" si="5"/>
-        <v>0.99889751186988451</v>
+        <v>0.99999999982903298</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>0.9966850557353677</v>
+        <v>0.99999999925934002</v>
       </c>
       <c r="K14">
         <f t="shared" si="7"/>
-        <v>0.99186775720306608</v>
+        <v>0.99999999738904521</v>
       </c>
       <c r="L14">
         <f t="shared" si="8"/>
-        <v>0.98290726710062137</v>
+        <v>0.99999999213663937</v>
       </c>
       <c r="M14">
         <f t="shared" si="9"/>
-        <v>0.96817194269379514</v>
+        <v>0.99999997908347327</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
@@ -945,43 +945,43 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.99999999999225908</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <f t="shared" si="10"/>
-        <v>0.9999999899522336</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>0.99999944824676423</v>
+        <v>0.99999999999999523</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>0.99999169177563152</v>
+        <v>0.99999999999989586</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
-        <v>0.99993837308987499</v>
+        <v>0.99999999999887579</v>
       </c>
       <c r="I15">
         <f t="shared" si="5"/>
-        <v>0.99970766304935266</v>
+        <v>0.99999999999225908</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
-        <v>0.998980605562383</v>
+        <v>0.99999999996090272</v>
       </c>
       <c r="K15">
         <f t="shared" si="7"/>
-        <v>0.99716023387948627</v>
+        <v>0.99999999984259413</v>
       </c>
       <c r="L15">
         <f t="shared" si="8"/>
-        <v>0.99333132791281809</v>
+        <v>0.99999999946705742</v>
       </c>
       <c r="M15">
         <f t="shared" si="9"/>
-        <v>0.98630473140161712</v>
+        <v>0.99999999842596576</v>
       </c>
     </row>
   </sheetData>
